--- a/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
@@ -1823,7 +1823,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2042,21 +2042,9 @@
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>

--- a/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
@@ -1967,21 +1967,9 @@
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>

--- a/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
@@ -1277,10 +1277,16 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1344,14 +1350,14 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>Driver,
-Red Van,
-Supv Rx</t>
+Optima
+Rx</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1377,11 +1383,7 @@
           <t>Greg</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1425,14 +1427,13 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>Driver,
-Optima
-Rx</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1506,15 +1507,10 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1582,7 +1578,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1649,7 +1645,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1716,7 +1712,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1783,7 +1779,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1858,7 +1854,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1933,7 +1929,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1997,7 +1993,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2052,10 +2048,14 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -2101,21 +2101,9 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>

--- a/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
@@ -1146,7 +1146,12 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1430,12 +1435,7 @@
           <t>Kim</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>

--- a/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
@@ -997,14 +997,10 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1068,12 +1064,14 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store,
+Optima,
+Equip</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1270,7 +1268,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1343,10 +1341,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1360,9 +1362,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Driver,
-Optima
-Rx</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1432,10 +1432,15 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1491,14 +1496,10 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>

--- a/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
@@ -1994,10 +1994,14 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -2042,21 +2046,9 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>

--- a/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
@@ -540,24 +540,56 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>

--- a/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
+++ b/01-19-25 to 01-25-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1757,10 +1757,14 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1824,7 +1828,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1899,12 +1903,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1974,13 +1979,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2042,12 +2046,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2082,22 +2087,9 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2158,7 +2150,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2187,7 +2183,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2202,37 +2198,6 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
